--- a/Accelerator/Data Observability/Output/project_dim.xlsx
+++ b/Accelerator/Data Observability/Output/project_dim.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Drift" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Numerical" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Categorical" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Usage" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -485,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +550,11 @@
           <t>Median</t>
         </is>
       </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>skewness</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -557,7 +563,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15517</v>
+        <v>15624</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -572,19 +578,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>15356</v>
+        <v>15463</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>37019</v>
+        <v>37126</v>
       </c>
       <c r="J2" t="n">
-        <v>19312.55</v>
+        <v>19434.18</v>
       </c>
       <c r="K2" t="n">
-        <v>19764</v>
+        <v>19926.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="3">
@@ -603,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>15517</v>
+        <v>15624</v>
       </c>
       <c r="F3" t="n">
         <v>100</v>
@@ -628,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>15517</v>
+        <v>15624</v>
       </c>
       <c r="F4" t="n">
         <v>100</v>
@@ -644,7 +653,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15517</v>
+        <v>15624</v>
       </c>
       <c r="C5" t="n">
         <v>260</v>
@@ -659,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -668,11 +677,14 @@
         <v>648000</v>
       </c>
       <c r="J5" t="n">
-        <v>11691.69</v>
+        <v>11665.85</v>
       </c>
       <c r="K5" t="n">
         <v>2700</v>
       </c>
+      <c r="L5" t="n">
+        <v>7.33</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -681,7 +693,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12397</v>
+        <v>12457</v>
       </c>
       <c r="C6" t="n">
         <v>26</v>
@@ -690,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>3120</v>
+        <v>3167</v>
       </c>
       <c r="F6" t="n">
-        <v>20.11</v>
+        <v>20.27</v>
       </c>
       <c r="G6" t="n">
-        <v>5137</v>
+        <v>5161</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -705,10 +717,13 @@
         <v>470000</v>
       </c>
       <c r="J6" t="n">
-        <v>6688.31</v>
+        <v>6686.31</v>
       </c>
       <c r="K6" t="n">
-        <v>1822.5</v>
+        <v>1840.15</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7.99</v>
       </c>
     </row>
     <row r="7">
@@ -718,7 +733,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15517</v>
+        <v>15624</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -733,19 +748,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5306</v>
+        <v>5325</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>15663</v>
+        <v>15718</v>
       </c>
       <c r="J7" t="n">
-        <v>6121.68</v>
+        <v>6158.1</v>
       </c>
       <c r="K7" t="n">
-        <v>5665</v>
+        <v>5709</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="8">
@@ -755,7 +773,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15517</v>
+        <v>15624</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -770,19 +788,22 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>9905</v>
+        <v>9950</v>
       </c>
       <c r="H8" t="n">
         <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>22130</v>
+        <v>22189</v>
       </c>
       <c r="J8" t="n">
-        <v>10482.3</v>
+        <v>10561.56</v>
       </c>
       <c r="K8" t="n">
-        <v>10501</v>
+        <v>10593</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="9">
@@ -792,7 +813,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15517</v>
+        <v>15624</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -807,20 +828,23 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1398</v>
+        <v>1406</v>
       </c>
       <c r="H9" t="n">
         <v>218</v>
       </c>
       <c r="I9" t="n">
-        <v>71019</v>
+        <v>71501</v>
       </c>
       <c r="J9" t="n">
-        <v>32554.53</v>
+        <v>32665.79</v>
       </c>
       <c r="K9" t="n">
         <v>34607</v>
       </c>
+      <c r="L9" t="n">
+        <v>-0.34</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -829,7 +853,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15517</v>
+        <v>15624</v>
       </c>
       <c r="C10" t="n">
         <v>56</v>
@@ -844,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -853,11 +877,14 @@
         <v>80000</v>
       </c>
       <c r="J10" t="n">
-        <v>942.48</v>
+        <v>939.88</v>
       </c>
       <c r="K10" t="n">
         <v>170</v>
       </c>
+      <c r="L10" t="n">
+        <v>10.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -866,10 +893,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15517</v>
+        <v>15624</v>
       </c>
       <c r="C11" t="n">
-        <v>7006</v>
+        <v>7033</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -890,11 +917,14 @@
         <v>5000</v>
       </c>
       <c r="J11" t="n">
-        <v>20.05</v>
+        <v>20.03</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
+      <c r="L11" t="n">
+        <v>24.16</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -903,10 +933,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15517</v>
+        <v>15624</v>
       </c>
       <c r="C12" t="n">
-        <v>6062</v>
+        <v>6089</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -918,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -927,11 +957,14 @@
         <v>20000</v>
       </c>
       <c r="J12" t="n">
-        <v>33</v>
+        <v>32.95</v>
       </c>
       <c r="K12" t="n">
         <v>5</v>
       </c>
+      <c r="L12" t="n">
+        <v>83.40000000000001</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -940,7 +973,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15377</v>
+        <v>15484</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -964,11 +997,14 @@
         <v>42</v>
       </c>
       <c r="J13" t="n">
-        <v>3.46</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
         <v>2</v>
       </c>
+      <c r="L13" t="n">
+        <v>2.44</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -977,10 +1013,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15517</v>
+        <v>15624</v>
       </c>
       <c r="C14" t="n">
-        <v>14980</v>
+        <v>15081</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1006,6 +1042,9 @@
       <c r="K14" t="n">
         <v>0</v>
       </c>
+      <c r="L14" t="n">
+        <v>5.08</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1014,10 +1053,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15517</v>
+        <v>15624</v>
       </c>
       <c r="C15" t="n">
-        <v>14378</v>
+        <v>14438</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1038,10 +1077,13 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="16">
@@ -1051,10 +1093,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15517</v>
+        <v>15624</v>
       </c>
       <c r="C16" t="n">
-        <v>15169</v>
+        <v>15274</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1080,6 +1122,9 @@
       <c r="K16" t="n">
         <v>0</v>
       </c>
+      <c r="L16" t="n">
+        <v>6.46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1088,10 +1133,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15517</v>
+        <v>15624</v>
       </c>
       <c r="C17" t="n">
-        <v>11386</v>
+        <v>11497</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1112,10 +1157,13 @@
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.07</v>
       </c>
     </row>
     <row r="18">
@@ -1125,10 +1173,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15186</v>
+        <v>15293</v>
       </c>
       <c r="C18" t="n">
-        <v>14283</v>
+        <v>14390</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1137,7 +1185,7 @@
         <v>331</v>
       </c>
       <c r="F18" t="n">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -1154,6 +1202,9 @@
       <c r="K18" t="n">
         <v>0</v>
       </c>
+      <c r="L18" t="n">
+        <v>3.74</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1162,10 +1213,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15186</v>
+        <v>15293</v>
       </c>
       <c r="C19" t="n">
-        <v>14283</v>
+        <v>14390</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1174,7 +1225,7 @@
         <v>331</v>
       </c>
       <c r="F19" t="n">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1191,6 +1242,9 @@
       <c r="K19" t="n">
         <v>0</v>
       </c>
+      <c r="L19" t="n">
+        <v>3.74</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1199,10 +1253,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15517</v>
+        <v>15624</v>
       </c>
       <c r="C20" t="n">
-        <v>14607</v>
+        <v>14714</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1227,6 +1281,9 @@
       </c>
       <c r="K20" t="n">
         <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.77</v>
       </c>
     </row>
   </sheetData>
@@ -1292,7 +1349,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15517</v>
+        <v>15624</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1319,7 +1376,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15517</v>
+        <v>15624</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1346,7 +1403,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15517</v>
+        <v>15624</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1373,7 +1430,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15517</v>
+        <v>15624</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1400,16 +1457,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10516</v>
+        <v>10566</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>5001</v>
+        <v>5058</v>
       </c>
       <c r="E6" t="n">
-        <v>32.23</v>
+        <v>32.37</v>
       </c>
       <c r="F6" t="n">
         <v>8</v>
@@ -1427,16 +1484,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6967</v>
+        <v>7063</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>8550</v>
+        <v>8561</v>
       </c>
       <c r="E7" t="n">
-        <v>55.1</v>
+        <v>54.79</v>
       </c>
       <c r="F7" t="n">
         <v>4</v>
@@ -1444,6 +1501,83 @@
       <c r="G7" t="inlineStr">
         <is>
           <t>Green (Stable Project)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>schemaname</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>no_of_times_accessed</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>table_name</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>indexrelname</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>tables_usability</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>index_usability</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>adaptiveai</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>34</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>project_dim</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Used</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Index not used</t>
         </is>
       </c>
     </row>

--- a/Accelerator/Data Observability/Output/project_dim.xlsx
+++ b/Accelerator/Data Observability/Output/project_dim.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Drift" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Numerical" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Categorical" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Usage" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Usage" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Numerical" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Categorical" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Drift" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Numerical1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Categorical1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Drift1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Usage1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Numerical2" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Categorical2" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Drift2" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Usage2" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -29,11 +37,8 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -453,7 +458,83 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>schemaname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>no_of_times_accessed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>table_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>indexrelname</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tables_usability</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>index_usability</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>adaptiveai</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>58</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>project_dim</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Used</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Index not used</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,16 +543,317 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>message</t>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Zeros</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Missing Values</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>% Missing Values</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Unique Values</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Mode</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Either date column not available/ or no data for the given date</t>
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Full Charge Bookkeeping</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>project_frequency</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>One Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>client_rate_type</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>freelancer_cohort</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10586</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5103</v>
+      </c>
+      <c r="F6" t="n">
+        <v>32.53</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>pmo_status</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8589</v>
+      </c>
+      <c r="F7" t="n">
+        <v>54.75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Green (Stable Project)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>schemaname</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>no_of_times_accessed</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>table_name</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>indexrelname</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>tables_usability</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>index_usability</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adaptiveai</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>64</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>project_dim</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Used</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Index not used</t>
         </is>
       </c>
     </row>
@@ -486,73 +868,78 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Count</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Zeros</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Negatives</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Missing Values</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>% Missing Values</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Unique Values</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Median</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>skewness</t>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Skewness</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Skewness_Category</t>
         </is>
       </c>
     </row>
@@ -563,7 +950,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15624</v>
+        <v>15689</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -578,22 +965,27 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>15463</v>
+        <v>15528</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>37126</v>
+        <v>37191</v>
       </c>
       <c r="J2" t="n">
-        <v>19434.18</v>
+        <v>19507.61</v>
       </c>
       <c r="K2" t="n">
-        <v>19926.5</v>
+        <v>20084</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.09</v>
+        <v>-0.1</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>slightly skewed</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -612,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>15624</v>
+        <v>15689</v>
       </c>
       <c r="F3" t="n">
         <v>100</v>
@@ -620,6 +1012,11 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>approximately symmetric</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -637,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>15624</v>
+        <v>15689</v>
       </c>
       <c r="F4" t="n">
         <v>100</v>
@@ -645,6 +1042,11 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>approximately symmetric</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -653,7 +1055,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15624</v>
+        <v>15689</v>
       </c>
       <c r="C5" t="n">
         <v>260</v>
@@ -668,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -677,7 +1079,7 @@
         <v>648000</v>
       </c>
       <c r="J5" t="n">
-        <v>11665.85</v>
+        <v>11639.43</v>
       </c>
       <c r="K5" t="n">
         <v>2700</v>
@@ -685,6 +1087,11 @@
       <c r="L5" t="n">
         <v>7.33</v>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -693,7 +1100,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12457</v>
+        <v>12512</v>
       </c>
       <c r="C6" t="n">
         <v>26</v>
@@ -702,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>3167</v>
+        <v>3177</v>
       </c>
       <c r="F6" t="n">
-        <v>20.27</v>
+        <v>20.25</v>
       </c>
       <c r="G6" t="n">
-        <v>5161</v>
+        <v>5178</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -717,13 +1124,18 @@
         <v>470000</v>
       </c>
       <c r="J6" t="n">
-        <v>6686.31</v>
+        <v>6705.3</v>
       </c>
       <c r="K6" t="n">
-        <v>1840.15</v>
+        <v>1848.75</v>
       </c>
       <c r="L6" t="n">
-        <v>7.99</v>
+        <v>7.98</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -733,7 +1145,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15624</v>
+        <v>15689</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -748,23 +1160,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5325</v>
+        <v>5339</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>15718</v>
+        <v>15782</v>
       </c>
       <c r="J7" t="n">
-        <v>6158.1</v>
+        <v>6180.47</v>
       </c>
       <c r="K7" t="n">
-        <v>5709</v>
+        <v>5723</v>
       </c>
       <c r="L7" t="n">
         <v>0.32</v>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>moderately skewed</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -773,7 +1190,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15624</v>
+        <v>15689</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -788,23 +1205,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>9950</v>
+        <v>9977</v>
       </c>
       <c r="H8" t="n">
         <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>22189</v>
+        <v>22274</v>
       </c>
       <c r="J8" t="n">
-        <v>10561.56</v>
+        <v>10609.06</v>
       </c>
       <c r="K8" t="n">
-        <v>10593</v>
+        <v>10649</v>
       </c>
       <c r="L8" t="n">
         <v>0.05</v>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>slightly skewed</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -813,7 +1235,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15624</v>
+        <v>15689</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -828,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1406</v>
+        <v>1414</v>
       </c>
       <c r="H9" t="n">
         <v>218</v>
@@ -837,7 +1259,7 @@
         <v>71501</v>
       </c>
       <c r="J9" t="n">
-        <v>32665.79</v>
+        <v>32759.32</v>
       </c>
       <c r="K9" t="n">
         <v>34607</v>
@@ -845,6 +1267,11 @@
       <c r="L9" t="n">
         <v>-0.34</v>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>moderately skewed</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -853,7 +1280,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15624</v>
+        <v>15689</v>
       </c>
       <c r="C10" t="n">
         <v>56</v>
@@ -868,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -877,7 +1304,7 @@
         <v>80000</v>
       </c>
       <c r="J10" t="n">
-        <v>939.88</v>
+        <v>938.73</v>
       </c>
       <c r="K10" t="n">
         <v>170</v>
@@ -885,6 +1312,11 @@
       <c r="L10" t="n">
         <v>10.2</v>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -893,10 +1325,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15624</v>
+        <v>15689</v>
       </c>
       <c r="C11" t="n">
-        <v>7033</v>
+        <v>7053</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -917,13 +1349,18 @@
         <v>5000</v>
       </c>
       <c r="J11" t="n">
-        <v>20.03</v>
+        <v>19.99</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>24.16</v>
+        <v>24.17</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -933,10 +1370,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15624</v>
+        <v>15689</v>
       </c>
       <c r="C12" t="n">
-        <v>6089</v>
+        <v>6109</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -957,13 +1394,18 @@
         <v>20000</v>
       </c>
       <c r="J12" t="n">
-        <v>32.95</v>
+        <v>32.9</v>
       </c>
       <c r="K12" t="n">
         <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>83.40000000000001</v>
+        <v>83.53</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -973,7 +1415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15484</v>
+        <v>15549</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -985,7 +1427,7 @@
         <v>140</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="G13" t="n">
         <v>35</v>
@@ -1005,6 +1447,11 @@
       <c r="L13" t="n">
         <v>2.44</v>
       </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1013,10 +1460,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15624</v>
+        <v>15689</v>
       </c>
       <c r="C14" t="n">
-        <v>15081</v>
+        <v>15142</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1043,7 +1490,12 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>5.08</v>
+        <v>5.07</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1053,10 +1505,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15624</v>
+        <v>15689</v>
       </c>
       <c r="C15" t="n">
-        <v>14438</v>
+        <v>14482</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1083,7 +1535,12 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>3.2</v>
+        <v>3.18</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1093,10 +1550,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15624</v>
+        <v>15689</v>
       </c>
       <c r="C16" t="n">
-        <v>15274</v>
+        <v>15338</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1125,6 +1582,11 @@
       <c r="L16" t="n">
         <v>6.46</v>
       </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1133,10 +1595,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15624</v>
+        <v>15689</v>
       </c>
       <c r="C17" t="n">
-        <v>11497</v>
+        <v>11556</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1165,6 +1627,11 @@
       <c r="L17" t="n">
         <v>1.07</v>
       </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1173,19 +1640,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15293</v>
+        <v>15355</v>
       </c>
       <c r="C18" t="n">
-        <v>14390</v>
+        <v>14452</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F18" t="n">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -1203,7 +1670,12 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>3.74</v>
+        <v>3.75</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1213,19 +1685,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15293</v>
+        <v>15355</v>
       </c>
       <c r="C19" t="n">
-        <v>14390</v>
+        <v>14452</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F19" t="n">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1243,7 +1715,12 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>3.74</v>
+        <v>3.75</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1253,10 +1730,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15624</v>
+        <v>15689</v>
       </c>
       <c r="C20" t="n">
-        <v>14714</v>
+        <v>14779</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1283,7 +1760,12 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>3.77</v>
+        <v>3.78</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1303,40 +1785,40 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Count</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Zeros</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Missing Values</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>% Missing Values</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Unique Values</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Mode</t>
         </is>
@@ -1349,7 +1831,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15624</v>
+        <v>15689</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1376,7 +1858,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15624</v>
+        <v>15689</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1403,7 +1885,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15624</v>
+        <v>15689</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1430,7 +1912,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15624</v>
+        <v>15689</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1457,16 +1939,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10566</v>
+        <v>10586</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>5058</v>
+        <v>5103</v>
       </c>
       <c r="E6" t="n">
-        <v>32.37</v>
+        <v>32.53</v>
       </c>
       <c r="F6" t="n">
         <v>8</v>
@@ -1484,16 +1966,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7063</v>
+        <v>7100</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>8561</v>
+        <v>8589</v>
       </c>
       <c r="E7" t="n">
-        <v>54.79</v>
+        <v>54.75</v>
       </c>
       <c r="F7" t="n">
         <v>4</v>
@@ -1515,7 +1997,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1524,60 +2024,2252 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Zeros</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Negatives</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Missing Values</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>% Missing Values</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Unique Values</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Median</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Skewness</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>Skewness_Category</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>project_id</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15528</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>37191</v>
+      </c>
+      <c r="K2" t="n">
+        <v>19507.61</v>
+      </c>
+      <c r="L2" t="n">
+        <v>20084</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>slightly skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>start_date_calculated</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15689</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>approximately symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>end_date_calculated</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15689</v>
+      </c>
+      <c r="G4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>approximately symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>project_fsv</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D5" t="n">
+        <v>260</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1884</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>648000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11639.43</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2700</v>
+      </c>
+      <c r="M5" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ir_till_date</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12512</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3177</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5178</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>470000</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6705.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1848.75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>client_id</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5339</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>15782</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6180.47</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5723</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>moderately skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>proposal_id</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9977</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>22274</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10609.06</v>
+      </c>
+      <c r="L8" t="n">
+        <v>10649</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>slightly skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>freelancer_id</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1414</v>
+      </c>
+      <c r="I9" t="n">
+        <v>218</v>
+      </c>
+      <c r="J9" t="n">
+        <v>71501</v>
+      </c>
+      <c r="K9" t="n">
+        <v>32759.32</v>
+      </c>
+      <c r="L9" t="n">
+        <v>34607</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>moderately skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>client_rate</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D10" t="n">
+        <v>56</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>672</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>80000</v>
+      </c>
+      <c r="K10" t="n">
+        <v>938.73</v>
+      </c>
+      <c r="L10" t="n">
+        <v>170</v>
+      </c>
+      <c r="M10" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>minimum_estimate</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7053</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>269</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>maximum_estimate</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6109</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>311</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>20000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>83.53</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>project_task_count</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>15549</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>140</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>42</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>adhoc_flag</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D14" t="n">
+        <v>15142</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>busy_season_flag</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14482</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>dtc_flag</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D16" t="n">
+        <v>15338</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>attrition_flag</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D17" t="n">
+        <v>11556</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>paro_for_cpa_firms_flag</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>15355</v>
+      </c>
+      <c r="D18" t="n">
+        <v>14452</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>334</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>paro_for_cpa_firms_flag_rev</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>15355</v>
+      </c>
+      <c r="D19" t="n">
+        <v>14452</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>334</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>busy_flag_new</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D20" t="n">
+        <v>14779</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Zeros</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Missing Values</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>% Missing Values</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Unique Values</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Mode</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Full Charge Bookkeeping</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>project_frequency</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>One Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>client_rate_type</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hourly</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>freelancer_cohort</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10586</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5103</v>
+      </c>
+      <c r="F6" t="n">
+        <v>32.53</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>pmo_status</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8589</v>
+      </c>
+      <c r="F7" t="n">
+        <v>54.75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Green (Stable Project)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>schemaname</t>
         </is>
       </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>no_of_times_accessed</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>table_name</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>indexrelname</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>tables_usability</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>index_usability</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adaptiveai</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>63</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>project_dim</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Used</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Index not used</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>no_of_times_accessed</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>table_name</t>
+          <t>Count</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>indexrelname</t>
+          <t>Zeros</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>tables_usability</t>
+          <t>Negatives</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>index_usability</t>
+          <t>Missing Values</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>% Missing Values</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Unique Values</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Median</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Skewness</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>Skewness_Category</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>adaptiveai</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>34</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>project_dim</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Used</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Index not used</t>
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>project_id</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15528</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>37191</v>
+      </c>
+      <c r="K2" t="n">
+        <v>19507.61</v>
+      </c>
+      <c r="L2" t="n">
+        <v>20084</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>slightly skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>start_date_calculated</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15689</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>approximately symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>end_date_calculated</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15689</v>
+      </c>
+      <c r="G4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>approximately symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>project_fsv</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D5" t="n">
+        <v>260</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1884</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>648000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11639.43</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2700</v>
+      </c>
+      <c r="M5" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ir_till_date</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12512</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3177</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5178</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>470000</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6705.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1848.75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>client_id</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5339</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>15782</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6180.47</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5723</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>moderately skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>proposal_id</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9977</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>22274</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10609.06</v>
+      </c>
+      <c r="L8" t="n">
+        <v>10649</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>slightly skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>freelancer_id</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1414</v>
+      </c>
+      <c r="I9" t="n">
+        <v>218</v>
+      </c>
+      <c r="J9" t="n">
+        <v>71501</v>
+      </c>
+      <c r="K9" t="n">
+        <v>32759.32</v>
+      </c>
+      <c r="L9" t="n">
+        <v>34607</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>moderately skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>client_rate</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D10" t="n">
+        <v>56</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>672</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>80000</v>
+      </c>
+      <c r="K10" t="n">
+        <v>938.73</v>
+      </c>
+      <c r="L10" t="n">
+        <v>170</v>
+      </c>
+      <c r="M10" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>minimum_estimate</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7053</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>269</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>maximum_estimate</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6109</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>311</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>20000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>83.53</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>project_task_count</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>15549</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>140</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>42</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>adhoc_flag</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D14" t="n">
+        <v>15142</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>busy_season_flag</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14482</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>dtc_flag</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D16" t="n">
+        <v>15338</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>attrition_flag</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D17" t="n">
+        <v>11556</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>paro_for_cpa_firms_flag</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>15355</v>
+      </c>
+      <c r="D18" t="n">
+        <v>14452</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>334</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>paro_for_cpa_firms_flag_rev</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>15355</v>
+      </c>
+      <c r="D19" t="n">
+        <v>14452</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>334</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>busy_flag_new</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>15689</v>
+      </c>
+      <c r="D20" t="n">
+        <v>14779</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>highly skewed</t>
         </is>
       </c>
     </row>
